--- a/prod_manage_QA/mobile_manual_testing/system_testing/TST_SISTEMA_ProdManage_16-09-2024.xlsx
+++ b/prod_manage_QA/mobile_manual_testing/system_testing/TST_SISTEMA_ProdManage_16-09-2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="89">
   <si>
     <t>Projeto</t>
   </si>
@@ -414,12 +414,6 @@
     <t>1- O botão "Cronometrar" deve ficar indisponível, apenas aparecendo o botão de "Salvar Rendimento".</t>
   </si>
   <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>Dados são apagados sempre que saio e volto para a página.</t>
-  </si>
-  <si>
     <t>1- Entrar na tela "Rendimento";
 2- Preencher as colunas com valores maiores e menores que a meta "70%".</t>
   </si>
@@ -437,6 +431,9 @@
   </si>
   <si>
     <t>Novos cenários adicionados.</t>
+  </si>
+  <si>
+    <t>Arrumando erro de não salvar dados da tabela.</t>
   </si>
 </sst>
 </file>
@@ -803,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -883,9 +880,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,7 +1092,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1125,10 +1121,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1150,6 +1146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1490,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,11 +1511,11 @@
       <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -1566,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1576,9 +1573,15 @@
       <c r="B6" s="27">
         <v>45551</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="28"/>
+      <c r="E6" s="24">
+        <v>45555</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -1587,9 +1590,9 @@
       <c r="B7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1605,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1985,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>79</v>
@@ -2023,20 +2026,18 @@
         <v>66</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="F19" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>84</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
@@ -22815,11 +22816,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22839,11 +22840,11 @@
       </c>
       <c r="B4" s="10">
         <f>COUNTIF(Cenários!F:F,"OK")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13">
         <f>B4/B3</f>
-        <v>0.94736842105263153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -22852,11 +22853,11 @@
       </c>
       <c r="B5" s="10">
         <f>COUNTIF(Cenários!F:F,"NOK")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13">
         <f>B5/B3</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/prod_manage_QA/mobile_manual_testing/system_testing/TST_SISTEMA_ProdManage_16-09-2024.xlsx
+++ b/prod_manage_QA/mobile_manual_testing/system_testing/TST_SISTEMA_ProdManage_16-09-2024.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="131">
   <si>
     <t>Projeto</t>
   </si>
@@ -270,10 +270,6 @@
     <t>Criar Funcionário com campos vazios</t>
   </si>
   <si>
-    <t>1- Usuário deve permanecer na tela de "Registro de Cortes";
-2- O corte não deve ser registrado e aparecer a mensagem "Por favor, preencha todos os campos".</t>
-  </si>
-  <si>
     <t>1- Usuário deve voltar para a tela "Home";
 2- O corte deve ser registrado e aparecer a mensagem "Registro salvo com sucesso!".</t>
   </si>
@@ -363,10 +359,6 @@
     <t xml:space="preserve">Criar Rendimento </t>
   </si>
   <si>
-    <t>1- Usuário deve permanecer na tela de "Rendimento";
-2- O rendimento deve ser registrado e aparecer a mensagem "Rendimento salvo com sucesso".</t>
-  </si>
-  <si>
     <t>Relatório</t>
   </si>
   <si>
@@ -434,6 +426,166 @@
   </si>
   <si>
     <t>Arrumando erro de não salvar dados da tabela.</t>
+  </si>
+  <si>
+    <t>Registro de Operações</t>
+  </si>
+  <si>
+    <t>Criar Registro de Operações</t>
+  </si>
+  <si>
+    <t>1- O usuário permanasse na tela "Registro de Operações".
+2- A operação deve ser registrada e aparecer a mensagem "Registro de Operação salvo com sucesso!"</t>
+  </si>
+  <si>
+    <t>Criar Registro de Operações com campos vazios</t>
+  </si>
+  <si>
+    <t>Deletar uma Operação registrada</t>
+  </si>
+  <si>
+    <t>Ainda não implementado</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Criar Conjunto de Operações";
+2- Clicar em alguma das operações que aparecerem na lista;
+3- Clicar no botão "Excluir";
+4- Clicar no botão "Confirmar".</t>
+  </si>
+  <si>
+    <t>1- Usuário deve permanecer na tela "Criar Conjunto de Operações";
+2- A operação deve ser excluída e aparecer a mensagem "Registro de Operação excluído com sucesso!".</t>
+  </si>
+  <si>
+    <t>Listar Operações registradas</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Criar Conjunto de Operações".</t>
+  </si>
+  <si>
+    <t>1- Uma lista com as Operações registradas devem aparecer.</t>
+  </si>
+  <si>
+    <t>1- Deve aparecer uma mensagem escrito "Nenhuma Operação cadastrada!".</t>
+  </si>
+  <si>
+    <t>Conjunto de Operações</t>
+  </si>
+  <si>
+    <t>Filtrar por Dias, Funcionário ou Tarefa.</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Relatórios";
+2- Escolher um dos filtros de relatórios.</t>
+  </si>
+  <si>
+    <t>1- O gráfico deve ser alterado e se adaptar em relação ao filtro escolhido.</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Relatórios";
+2- Não ter nenhum dado registrado no sistema.</t>
+  </si>
+  <si>
+    <t>1- No lugar do gráfico deve aparecer um icone de "alerta" vermelho com a mensagem "Nenhum rendimento cadastrado neste periodo!".</t>
+  </si>
+  <si>
+    <t>Criar Conjunto de Operações</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Registro de Operações";
+2- Completar alguns campos válidos e deixar outros em branco;
+3- Clicar no botão "Salvar".</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Registro de Operações";
+2- Adicionar um título para a operação.
+3- Iniciar o cronômetro e calcular o tempo.
+4- Clicar no botão "Salvar".</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Criar Conjunto de Operações";
+2- Digitar um nome para o conjunto;
+3- Marcar um check nas operações que deseja;
+4- Clicar no botão "Salvar".</t>
+  </si>
+  <si>
+    <t>1- O conjunto de operações deve ser salvo e aparecer uma mensagem escrito "Conjunto de operações salvo com sucesso!".</t>
+  </si>
+  <si>
+    <t>Criar Conjunto de Operações com campos vazios</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Criar Conjunto de Operações";
+2- Completar alguns campos válidos e deixar outros em branco;
+3- Clicar no botão "Salvar".</t>
+  </si>
+  <si>
+    <t>1- Usuário deve permanecer na tela de "Registro de Cortes";
+2- O corte não deve ser registrado e aparecer a mensagem "Por favor, preencha todos os campos obrigatórios.".</t>
+  </si>
+  <si>
+    <t>1- Usuário deve permanecer na tela de "Registro de Operações";
+2- O corte não deve ser registrado e aparecer a mensagem "Por favor, preencha todos os campos obrigatórios.".</t>
+  </si>
+  <si>
+    <t>1- Usuário deve permanecer na tela de "Rendimento";
+2- O rendimento deve ser registrado e aparecer a mensagem "Rendimento salvo com sucesso!".</t>
+  </si>
+  <si>
+    <t>Deletar um Conjunto de Operações</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Criar Conjunto de Operações";
+2- Clicar no botão "Excluir";
+3- Clicar no botão "Confirmar";</t>
+  </si>
+  <si>
+    <t>1- O usuário permanasse na tela "Criar Conjunto de Operações".
+2- O Conjunto de Operações não deve ser registrada e aparecer a mensagem "Por favor, preencha todos os campos obrigatórios.".</t>
+  </si>
+  <si>
+    <t>1- O usuário permanasse na tela "Criar Conjunto de Operações".
+2- A Operação não deve ser registrada e aparecer a mensagem "Conjunto de Operações excluido com sucesso!".</t>
+  </si>
+  <si>
+    <t>Listar Conjunto de Operações registradas</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Registro de Corte";
+2- Clicar no botão "Selecione a Operação*".</t>
+  </si>
+  <si>
+    <t>1- Uma lista com os Conjuntos de Operações registrados devem aparecer.</t>
+  </si>
+  <si>
+    <t>Listar Conjunto de Operações sem nenhum ter sido registrado</t>
+  </si>
+  <si>
+    <t>Listar Operações sem nenhum ter sido registrado</t>
+  </si>
+  <si>
+    <t>1- Deve aparecer uma mensagem escrito "Nenhum Conjunto de Operações cadastrados!".</t>
+  </si>
+  <si>
+    <t>Nenhuma mensagem aparece</t>
+  </si>
+  <si>
+    <t>Colocar quantidade de peças menor que zero ou maior que o disponível</t>
+  </si>
+  <si>
+    <t>1- Entrar na tela "Rendimento";
+2- Clicar em "Cronometrar";
+3- Escola o código de um registro de corte;
+4- Coloque um valor menor que zero ou maior que o disponível.</t>
+  </si>
+  <si>
+    <t>1- Deve aparecer uma mensagem escrito "Quantidade deve ser entre 1 e $pieceAmount"</t>
+  </si>
+  <si>
+    <t>Relatório vazio</t>
   </si>
 </sst>
 </file>
@@ -882,9 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,11 +1058,126 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1121,10 +1385,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1488,7 +1752,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G34" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,11 +1775,11 @@
       <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -1548,7 +1812,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1563,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1580,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1590,9 +1854,15 @@
       <c r="B7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="37">
+        <v>45564</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1606,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1495"/>
+  <dimension ref="A1:G1491"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1953,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>22</v>
@@ -1692,7 +1962,7 @@
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
-        <f t="shared" ref="A4:A62" si="0">A3+1</f>
+        <f t="shared" ref="A4:A58" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -1705,7 +1975,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>22</v>
@@ -1727,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>22</v>
@@ -1749,7 +2019,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>22</v>
@@ -1764,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>22</v>
@@ -1786,13 +2056,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>22</v>
@@ -1808,13 +2078,13 @@
         <v>34</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>22</v>
@@ -1830,13 +2100,13 @@
         <v>34</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>22</v>
@@ -1849,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>38</v>
@@ -1870,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>41</v>
@@ -1879,7 +2149,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>22</v>
@@ -1892,16 +2162,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>22</v>
@@ -1913,16 +2183,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>22</v>
@@ -1935,16 +2205,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>22</v>
@@ -1957,16 +2227,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>22</v>
@@ -1979,16 +2249,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>22</v>
@@ -2001,16 +2271,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>22</v>
@@ -2023,16 +2293,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>22</v>
@@ -2045,206 +2315,314 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="E20" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="F22" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="F25" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="F26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F27" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="F28" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F29" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F30" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="F31" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F32" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F33" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="18"/>
@@ -2594,7 +2972,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A59:A122" si="1">A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="18"/>
@@ -2608,7 +2986,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="18"/>
@@ -2622,7 +3000,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="18"/>
@@ -2636,7 +3014,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="18"/>
@@ -2650,7 +3028,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
-        <f t="shared" ref="A63:A126" si="1">A62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="18"/>
@@ -3490,7 +3868,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A123:A186" si="2">A122+1</f>
         <v>122</v>
       </c>
       <c r="B123" s="18"/>
@@ -3504,7 +3882,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B124" s="18"/>
@@ -3518,7 +3896,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B125" s="18"/>
@@ -3532,7 +3910,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B126" s="18"/>
@@ -3546,7 +3924,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="18">
-        <f t="shared" ref="A127:A190" si="2">A126+1</f>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B127" s="18"/>
@@ -4386,7 +4764,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A187:A250" si="3">A186+1</f>
         <v>186</v>
       </c>
       <c r="B187" s="18"/>
@@ -4400,7 +4778,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
       <c r="B188" s="18"/>
@@ -4414,7 +4792,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="B189" s="18"/>
@@ -4428,7 +4806,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="B190" s="18"/>
@@ -4442,7 +4820,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="18">
-        <f t="shared" ref="A191:A254" si="3">A190+1</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B191" s="18"/>
@@ -5282,7 +5660,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A251:A314" si="4">A250+1</f>
         <v>250</v>
       </c>
       <c r="B251" s="18"/>
@@ -5296,7 +5674,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>251</v>
       </c>
       <c r="B252" s="18"/>
@@ -5310,7 +5688,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="B253" s="18"/>
@@ -5324,7 +5702,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>253</v>
       </c>
       <c r="B254" s="18"/>
@@ -5338,7 +5716,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="18">
-        <f t="shared" ref="A255:A318" si="4">A254+1</f>
+        <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="B255" s="18"/>
@@ -6178,7 +6556,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A315:A378" si="5">A314+1</f>
         <v>314</v>
       </c>
       <c r="B315" s="18"/>
@@ -6192,7 +6570,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
       <c r="B316" s="18"/>
@@ -6206,7 +6584,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="B317" s="18"/>
@@ -6220,7 +6598,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>317</v>
       </c>
       <c r="B318" s="18"/>
@@ -6234,7 +6612,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="18">
-        <f t="shared" ref="A319:A382" si="5">A318+1</f>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="B319" s="18"/>
@@ -7074,7 +7452,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A379:A442" si="6">A378+1</f>
         <v>378</v>
       </c>
       <c r="B379" s="18"/>
@@ -7088,7 +7466,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="B380" s="18"/>
@@ -7102,7 +7480,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="B381" s="18"/>
@@ -7116,7 +7494,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="B382" s="18"/>
@@ -7130,7 +7508,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="18">
-        <f t="shared" ref="A383:A446" si="6">A382+1</f>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="B383" s="18"/>
@@ -7970,7 +8348,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A443:A506" si="7">A442+1</f>
         <v>442</v>
       </c>
       <c r="B443" s="18"/>
@@ -7984,7 +8362,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>443</v>
       </c>
       <c r="B444" s="18"/>
@@ -7998,7 +8376,7 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>444</v>
       </c>
       <c r="B445" s="18"/>
@@ -8012,7 +8390,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>445</v>
       </c>
       <c r="B446" s="18"/>
@@ -8026,7 +8404,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="18">
-        <f t="shared" ref="A447:A510" si="7">A446+1</f>
+        <f t="shared" si="7"/>
         <v>446</v>
       </c>
       <c r="B447" s="18"/>
@@ -8866,7 +9244,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A507:A570" si="8">A506+1</f>
         <v>506</v>
       </c>
       <c r="B507" s="18"/>
@@ -8880,7 +9258,7 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>507</v>
       </c>
       <c r="B508" s="18"/>
@@ -8894,7 +9272,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>508</v>
       </c>
       <c r="B509" s="18"/>
@@ -8908,7 +9286,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>509</v>
       </c>
       <c r="B510" s="18"/>
@@ -8922,7 +9300,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="18">
-        <f t="shared" ref="A511:A574" si="8">A510+1</f>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
       <c r="B511" s="18"/>
@@ -9762,7 +10140,7 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A571:A634" si="9">A570+1</f>
         <v>570</v>
       </c>
       <c r="B571" s="18"/>
@@ -9776,7 +10154,7 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>571</v>
       </c>
       <c r="B572" s="18"/>
@@ -9790,7 +10168,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>572</v>
       </c>
       <c r="B573" s="18"/>
@@ -9804,7 +10182,7 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>573</v>
       </c>
       <c r="B574" s="18"/>
@@ -9818,7 +10196,7 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="18">
-        <f t="shared" ref="A575:A638" si="9">A574+1</f>
+        <f t="shared" si="9"/>
         <v>574</v>
       </c>
       <c r="B575" s="18"/>
@@ -10658,7 +11036,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A635:A698" si="10">A634+1</f>
         <v>634</v>
       </c>
       <c r="B635" s="18"/>
@@ -10672,7 +11050,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>635</v>
       </c>
       <c r="B636" s="18"/>
@@ -10686,7 +11064,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>636</v>
       </c>
       <c r="B637" s="18"/>
@@ -10700,7 +11078,7 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>637</v>
       </c>
       <c r="B638" s="18"/>
@@ -10714,7 +11092,7 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="18">
-        <f t="shared" ref="A639:A702" si="10">A638+1</f>
+        <f t="shared" si="10"/>
         <v>638</v>
       </c>
       <c r="B639" s="18"/>
@@ -11554,7 +11932,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A699:A762" si="11">A698+1</f>
         <v>698</v>
       </c>
       <c r="B699" s="18"/>
@@ -11568,7 +11946,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>699</v>
       </c>
       <c r="B700" s="18"/>
@@ -11582,7 +11960,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>700</v>
       </c>
       <c r="B701" s="18"/>
@@ -11596,7 +11974,7 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="B702" s="18"/>
@@ -11610,7 +11988,7 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="18">
-        <f t="shared" ref="A703:A766" si="11">A702+1</f>
+        <f t="shared" si="11"/>
         <v>702</v>
       </c>
       <c r="B703" s="18"/>
@@ -12450,7 +12828,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A763:A826" si="12">A762+1</f>
         <v>762</v>
       </c>
       <c r="B763" s="18"/>
@@ -12464,7 +12842,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>763</v>
       </c>
       <c r="B764" s="18"/>
@@ -12478,7 +12856,7 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>764</v>
       </c>
       <c r="B765" s="18"/>
@@ -12492,7 +12870,7 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>765</v>
       </c>
       <c r="B766" s="18"/>
@@ -12506,7 +12884,7 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="18">
-        <f t="shared" ref="A767:A830" si="12">A766+1</f>
+        <f t="shared" si="12"/>
         <v>766</v>
       </c>
       <c r="B767" s="18"/>
@@ -13346,7 +13724,7 @@
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A827:A890" si="13">A826+1</f>
         <v>826</v>
       </c>
       <c r="B827" s="18"/>
@@ -13360,7 +13738,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>827</v>
       </c>
       <c r="B828" s="18"/>
@@ -13374,7 +13752,7 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>828</v>
       </c>
       <c r="B829" s="18"/>
@@ -13388,7 +13766,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>829</v>
       </c>
       <c r="B830" s="18"/>
@@ -13402,7 +13780,7 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="18">
-        <f t="shared" ref="A831:A894" si="13">A830+1</f>
+        <f t="shared" si="13"/>
         <v>830</v>
       </c>
       <c r="B831" s="18"/>
@@ -14242,7 +14620,7 @@
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A891:A954" si="14">A890+1</f>
         <v>890</v>
       </c>
       <c r="B891" s="18"/>
@@ -14256,7 +14634,7 @@
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>891</v>
       </c>
       <c r="B892" s="18"/>
@@ -14270,7 +14648,7 @@
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>892</v>
       </c>
       <c r="B893" s="18"/>
@@ -14284,7 +14662,7 @@
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>893</v>
       </c>
       <c r="B894" s="18"/>
@@ -14298,7 +14676,7 @@
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895" s="18">
-        <f t="shared" ref="A895:A958" si="14">A894+1</f>
+        <f t="shared" si="14"/>
         <v>894</v>
       </c>
       <c r="B895" s="18"/>
@@ -15138,7 +15516,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A955:A1018" si="15">A954+1</f>
         <v>954</v>
       </c>
       <c r="B955" s="18"/>
@@ -15152,7 +15530,7 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>955</v>
       </c>
       <c r="B956" s="18"/>
@@ -15166,7 +15544,7 @@
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>956</v>
       </c>
       <c r="B957" s="18"/>
@@ -15180,7 +15558,7 @@
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>957</v>
       </c>
       <c r="B958" s="18"/>
@@ -15194,7 +15572,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" s="18">
-        <f t="shared" ref="A959:A1022" si="15">A958+1</f>
+        <f t="shared" si="15"/>
         <v>958</v>
       </c>
       <c r="B959" s="18"/>
@@ -16034,7 +16412,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A1019:A1082" si="16">A1018+1</f>
         <v>1018</v>
       </c>
       <c r="B1019" s="18"/>
@@ -16048,7 +16426,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1019</v>
       </c>
       <c r="B1020" s="18"/>
@@ -16062,7 +16440,7 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1020</v>
       </c>
       <c r="B1021" s="18"/>
@@ -16076,7 +16454,7 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1021</v>
       </c>
       <c r="B1022" s="18"/>
@@ -16090,7 +16468,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" s="18">
-        <f t="shared" ref="A1023:A1086" si="16">A1022+1</f>
+        <f t="shared" si="16"/>
         <v>1022</v>
       </c>
       <c r="B1023" s="18"/>
@@ -16930,7 +17308,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1083" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="A1083:A1146" si="17">A1082+1</f>
         <v>1082</v>
       </c>
       <c r="B1083" s="18"/>
@@ -16944,7 +17322,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1084" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1083</v>
       </c>
       <c r="B1084" s="18"/>
@@ -16958,7 +17336,7 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1085" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1084</v>
       </c>
       <c r="B1085" s="18"/>
@@ -16972,7 +17350,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1086" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1085</v>
       </c>
       <c r="B1086" s="18"/>
@@ -16986,7 +17364,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1087" s="18">
-        <f t="shared" ref="A1087:A1150" si="17">A1086+1</f>
+        <f t="shared" si="17"/>
         <v>1086</v>
       </c>
       <c r="B1087" s="18"/>
@@ -17826,7 +18204,7 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1147" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="A1147:A1210" si="18">A1146+1</f>
         <v>1146</v>
       </c>
       <c r="B1147" s="18"/>
@@ -17840,7 +18218,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1147</v>
       </c>
       <c r="B1148" s="18"/>
@@ -17854,7 +18232,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1148</v>
       </c>
       <c r="B1149" s="18"/>
@@ -17868,7 +18246,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1150" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1149</v>
       </c>
       <c r="B1150" s="18"/>
@@ -17882,7 +18260,7 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1151" s="18">
-        <f t="shared" ref="A1151:A1214" si="18">A1150+1</f>
+        <f t="shared" si="18"/>
         <v>1150</v>
       </c>
       <c r="B1151" s="18"/>
@@ -18722,7 +19100,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1211" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A1211:A1274" si="19">A1210+1</f>
         <v>1210</v>
       </c>
       <c r="B1211" s="18"/>
@@ -18736,7 +19114,7 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1212" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1211</v>
       </c>
       <c r="B1212" s="18"/>
@@ -18750,7 +19128,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1213" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1212</v>
       </c>
       <c r="B1213" s="18"/>
@@ -18764,7 +19142,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1214" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1213</v>
       </c>
       <c r="B1214" s="18"/>
@@ -18778,7 +19156,7 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1215" s="18">
-        <f t="shared" ref="A1215:A1278" si="19">A1214+1</f>
+        <f t="shared" si="19"/>
         <v>1214</v>
       </c>
       <c r="B1215" s="18"/>
@@ -19618,7 +19996,7 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1275" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="A1275:A1338" si="20">A1274+1</f>
         <v>1274</v>
       </c>
       <c r="B1275" s="18"/>
@@ -19632,7 +20010,7 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1276" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1275</v>
       </c>
       <c r="B1276" s="18"/>
@@ -19646,7 +20024,7 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1277" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1276</v>
       </c>
       <c r="B1277" s="18"/>
@@ -19660,7 +20038,7 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1278" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1277</v>
       </c>
       <c r="B1278" s="18"/>
@@ -19674,7 +20052,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1279" s="18">
-        <f t="shared" ref="A1279:A1342" si="20">A1278+1</f>
+        <f t="shared" si="20"/>
         <v>1278</v>
       </c>
       <c r="B1279" s="18"/>
@@ -20514,7 +20892,7 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1339" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A1339:A1402" si="21">A1338+1</f>
         <v>1338</v>
       </c>
       <c r="B1339" s="18"/>
@@ -20528,7 +20906,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1340" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1339</v>
       </c>
       <c r="B1340" s="18"/>
@@ -20542,7 +20920,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1341" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1340</v>
       </c>
       <c r="B1341" s="18"/>
@@ -20556,7 +20934,7 @@
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1342" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1341</v>
       </c>
       <c r="B1342" s="18"/>
@@ -20570,7 +20948,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1343" s="18">
-        <f t="shared" ref="A1343:A1406" si="21">A1342+1</f>
+        <f t="shared" si="21"/>
         <v>1342</v>
       </c>
       <c r="B1343" s="18"/>
@@ -21410,7 +21788,7 @@
     </row>
     <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1403" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="A1403:A1466" si="22">A1402+1</f>
         <v>1402</v>
       </c>
       <c r="B1403" s="18"/>
@@ -21424,7 +21802,7 @@
     </row>
     <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1404" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1403</v>
       </c>
       <c r="B1404" s="18"/>
@@ -21438,7 +21816,7 @@
     </row>
     <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1405" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1404</v>
       </c>
       <c r="B1405" s="18"/>
@@ -21452,7 +21830,7 @@
     </row>
     <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1406" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1405</v>
       </c>
       <c r="B1406" s="18"/>
@@ -21466,7 +21844,7 @@
     </row>
     <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1407" s="18">
-        <f t="shared" ref="A1407:A1470" si="22">A1406+1</f>
+        <f t="shared" si="22"/>
         <v>1406</v>
       </c>
       <c r="B1407" s="18"/>
@@ -22306,7 +22684,7 @@
     </row>
     <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1467" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="A1467:A1491" si="23">A1466+1</f>
         <v>1466</v>
       </c>
       <c r="B1467" s="18"/>
@@ -22320,7 +22698,7 @@
     </row>
     <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1468" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1467</v>
       </c>
       <c r="B1468" s="18"/>
@@ -22334,7 +22712,7 @@
     </row>
     <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1469" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1468</v>
       </c>
       <c r="B1469" s="18"/>
@@ -22348,7 +22726,7 @@
     </row>
     <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1470" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1469</v>
       </c>
       <c r="B1470" s="18"/>
@@ -22362,7 +22740,7 @@
     </row>
     <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1471" s="18">
-        <f t="shared" ref="A1471:A1495" si="23">A1470+1</f>
+        <f t="shared" si="23"/>
         <v>1470</v>
       </c>
       <c r="B1471" s="18"/>
@@ -22654,65 +23032,57 @@
       </c>
       <c r="G1491" s="18"/>
     </row>
-    <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1492" s="18">
-        <f t="shared" si="23"/>
-        <v>1491</v>
-      </c>
-      <c r="B1492" s="18"/>
-      <c r="C1492" s="18"/>
-      <c r="D1492" s="18"/>
-      <c r="E1492" s="18"/>
-      <c r="F1492" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1492" s="18"/>
-    </row>
-    <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1493" s="18">
-        <f t="shared" si="23"/>
-        <v>1492</v>
-      </c>
-      <c r="B1493" s="18"/>
-      <c r="C1493" s="18"/>
-      <c r="D1493" s="18"/>
-      <c r="E1493" s="18"/>
-      <c r="F1493" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1493" s="18"/>
-    </row>
-    <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1494" s="18">
-        <f t="shared" si="23"/>
-        <v>1493</v>
-      </c>
-      <c r="B1494" s="18"/>
-      <c r="C1494" s="18"/>
-      <c r="D1494" s="18"/>
-      <c r="E1494" s="18"/>
-      <c r="F1494" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1494" s="18"/>
-    </row>
-    <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1495" s="18">
-        <f t="shared" si="23"/>
-        <v>1494</v>
-      </c>
-      <c r="B1495" s="18"/>
-      <c r="C1495" s="18"/>
-      <c r="D1495" s="18"/>
-      <c r="E1495" s="18"/>
-      <c r="F1495" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1495" s="18"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="F2:F5 F13:F14 F7:F8 F11 F16:F1495">
+  <conditionalFormatting sqref="F2:F5 F13:F14 F7:F8 F11 F29:F31 F34:F1491 F16:F24">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -22720,7 +23090,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -22728,7 +23098,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -22736,7 +23106,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -22744,7 +23114,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -22752,7 +23122,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F33">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -22761,7 +23131,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20 F21:F1495">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33 F34:F1491">
       <formula1>"-,OK,NOK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22786,12 +23156,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -22816,11 +23186,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22828,7 +23198,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTA(Cenários!B:B)-1</f>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -22840,11 +23210,11 @@
       </c>
       <c r="B4" s="10">
         <f>COUNTIF(Cenários!F:F,"OK")</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4" s="13">
         <f>B4/B3</f>
-        <v>1</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -22853,11 +23223,11 @@
       </c>
       <c r="B5" s="10">
         <f>COUNTIF(Cenários!F:F,"NOK")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="13">
         <f>B5/B3</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
